--- a/DTC_List.xlsx
+++ b/DTC_List.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,45 +507,47 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">12m EV Staff Bus-Endurance-P-0007 </t>
+          <t xml:space="preserve">12m EV Staff Bus-Endurance-B-0004 </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>O</t>
         </is>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45254</v>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>45624</v>
+        <v>45336</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Not available</t>
+        </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Rahul Verma</t>
+          <t>Ramanand Pawale</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Validation Closed</t>
+          <t>Verification</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Squeak noise from RH side Hatrack</t>
+          <t>12M EV Staff AC bus_V1_ Quality_ Grease leakage from front axle LHS wheel end</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>EV</t>
+          <t>LMD</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MC2V2RRT0PH101418</t>
+          <t>Not available</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -555,7 +557,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">12m EV Staff Bus-Endurance-B-0004 </t>
+          <t xml:space="preserve">VE3363-Endurance-B-0003 </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -564,7 +566,7 @@
         </is>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45336</v>
+        <v>45394</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -573,17 +575,17 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Ramanand Pawale</t>
+          <t>Subodha Nayak</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Verification</t>
+          <t>Part Avaibility</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>12M EV Staff AC bus_V1_ Quality_ Grease leakage from front axle LHS wheel end</t>
+          <t xml:space="preserve">Rear RHS shock absorber failure </t>
         </is>
       </c>
     </row>
@@ -605,35 +607,33 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">VE3363-Endurance-B-0003 </t>
+          <t>VE3361-PerformanceAndFeatureVerification-B-0006</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45394</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Not available</t>
-        </is>
+        <v>45498</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>45623</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Subodha Nayak</t>
+          <t>Chetna Kanodiya</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Part Avaibility</t>
+          <t>Validation Closed</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rear RHS shock absorber failure </t>
+          <t xml:space="preserve">B8F Muel_Performance and Feature_Compressed air Static noise (Service brake ) not Meeting </t>
         </is>
       </c>
     </row>
@@ -655,40 +655,42 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VE3361-PerformanceAndFeatureVerification-B-0006</t>
+          <t>VE3325-Export Validation-C-0019</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>O</t>
         </is>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45498</v>
-      </c>
-      <c r="G5" s="2" t="n">
-        <v>45623</v>
+        <v>45530</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Not available</t>
+        </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Chetna Kanodiya</t>
+          <t>Sakti Prasad Sarangi</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Validation Closed</t>
+          <t>Verification</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t xml:space="preserve">B8F Muel_Performance and Feature_Compressed air Static noise (Service brake ) not Meeting </t>
+          <t xml:space="preserve">Pro 3009 H EIII E494 24V NAC 36S SAF_RHD_Vehicle skidding &amp; Juddering issue observed while applying brake at 60 kmph </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LMD</t>
+          <t>BUS</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -703,7 +705,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VE3325-Export Validation-C-0019</t>
+          <t>VE3330-Export Validation-C-0024</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -712,7 +714,7 @@
         </is>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45530</v>
+        <v>44574</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -721,17 +723,17 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Sakti Prasad Sarangi</t>
+          <t>Rahul Verma</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Verification</t>
+          <t>ECO Implementation</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pro 3009 H EIII E494 24V NAC 36S SAF_RHD_Vehicle skidding &amp; Juddering issue observed while applying brake at 60 kmph </t>
+          <t xml:space="preserve">Several issue observed from Bus body (Design) (ORVM vibration , air from floor etc) </t>
         </is>
       </c>
     </row>
@@ -753,81 +755,31 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VE3330-Export Validation-C-0024</t>
+          <t>VE3191_PROTUS-AET-B-0015</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F7" s="2" t="n">
-        <v>44574</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Not available</t>
-        </is>
+        <v>43385</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>43775</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Rahul Verma</t>
+          <t>Abhoy Chandra</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>ECO Implementation</t>
+          <t>Validation Closed</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Several issue observed from Bus body (Design) (ORVM vibration , air from floor etc) </t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>BUS</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Not available</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Not available</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>VE3191_PROTUS-AET-B-0015</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>43385</v>
-      </c>
-      <c r="G8" s="2" t="n">
-        <v>43775</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Abhoy Chandra</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Validation Closed</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
         <is>
           <t xml:space="preserve">Critical gap between rear spring rear end cotter bolt and battery. </t>
         </is>

--- a/DTC_List.xlsx
+++ b/DTC_List.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,12 +492,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>EV</t>
+          <t>LMD</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MC2V2RRT0PH101418</t>
+          <t>Not available</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -507,7 +507,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">12m EV Staff Bus-Endurance-B-0004 </t>
+          <t xml:space="preserve">VE3363-Endurance-B-0003 </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45336</v>
+        <v>45394</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -525,17 +525,17 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ramanand Pawale</t>
+          <t>Subodha Nayak</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Verification</t>
+          <t>Part Avaibility</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>12M EV Staff AC bus_V1_ Quality_ Grease leakage from front axle LHS wheel end</t>
+          <t xml:space="preserve">Rear RHS shock absorber failure </t>
         </is>
       </c>
     </row>
@@ -557,35 +557,33 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">VE3363-Endurance-B-0003 </t>
+          <t>VE3361-PerformanceAndFeatureVerification-B-0006</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45394</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Not available</t>
-        </is>
+        <v>45498</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>45623</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Subodha Nayak</t>
+          <t>Chetna Kanodiya</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Part Avaibility</t>
+          <t>Validation Closed</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rear RHS shock absorber failure </t>
+          <t xml:space="preserve">B8F Muel_Performance and Feature_Compressed air Static noise (Service brake ) not Meeting </t>
         </is>
       </c>
     </row>
@@ -607,40 +605,42 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VE3361-PerformanceAndFeatureVerification-B-0006</t>
+          <t>VE3325-Export Validation-C-0019</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>O</t>
         </is>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45498</v>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>45623</v>
+        <v>45530</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Not available</t>
+        </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Chetna Kanodiya</t>
+          <t>Sakti Prasad Sarangi</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Validation Closed</t>
+          <t>Verification</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t xml:space="preserve">B8F Muel_Performance and Feature_Compressed air Static noise (Service brake ) not Meeting </t>
+          <t xml:space="preserve">Pro 3009 H EIII E494 24V NAC 36S SAF_RHD_Vehicle skidding &amp; Juddering issue observed while applying brake at 60 kmph </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>LMD</t>
+          <t>BUS</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VE3325-Export Validation-C-0019</t>
+          <t>VE3330-Export Validation-C-0024</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45530</v>
+        <v>44574</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -673,17 +673,17 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Sakti Prasad Sarangi</t>
+          <t>Rahul Verma</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Verification</t>
+          <t>ECO Implementation</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pro 3009 H EIII E494 24V NAC 36S SAF_RHD_Vehicle skidding &amp; Juddering issue observed while applying brake at 60 kmph </t>
+          <t xml:space="preserve">Several issue observed from Bus body (Design) (ORVM vibration , air from floor etc) </t>
         </is>
       </c>
     </row>
@@ -705,81 +705,31 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VE3330-Export Validation-C-0024</t>
+          <t>VE3191_PROTUS-AET-B-0015</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F6" s="2" t="n">
-        <v>44574</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Not available</t>
-        </is>
+        <v>43385</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>43775</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Rahul Verma</t>
+          <t>Abhoy Chandra</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>ECO Implementation</t>
+          <t>Validation Closed</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Several issue observed from Bus body (Design) (ORVM vibration , air from floor etc) </t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>BUS</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Not available</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Not available</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VE3191_PROTUS-AET-B-0015</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>43385</v>
-      </c>
-      <c r="G7" s="2" t="n">
-        <v>43775</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Abhoy Chandra</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Validation Closed</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
         <is>
           <t xml:space="preserve">Critical gap between rear spring rear end cotter bolt and battery. </t>
         </is>
